--- a/Rateios/razao.XLSX
+++ b/Rateios/razao.XLSX
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="83">
   <si>
     <t>RE</t>
   </si>
   <si>
-    <t>5100079582</t>
-  </si>
-  <si>
-    <t>TITULO nº 244016557-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>5100080004</t>
+  </si>
+  <si>
+    <t>TITULO nº 247871586-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>6151122020</t>
@@ -34,142 +34,163 @@
     <t/>
   </si>
   <si>
-    <t>5100079583</t>
-  </si>
-  <si>
-    <t>TITULO nº 244061989-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079595</t>
-  </si>
-  <si>
-    <t>TITULO nº 244521608-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079503</t>
-  </si>
-  <si>
-    <t>TITULO nº 240882476-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079504</t>
-  </si>
-  <si>
-    <t>TITULO nº 242386629-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079505</t>
-  </si>
-  <si>
-    <t>TITULO nº 242601924-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079516</t>
-  </si>
-  <si>
-    <t>TITULO nº 242769322-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079517</t>
-  </si>
-  <si>
-    <t>TITULO nº 242910240-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079518</t>
-  </si>
-  <si>
-    <t>TITULO nº 243197654-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079536</t>
-  </si>
-  <si>
-    <t>TITULO nº 242935748-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079537</t>
-  </si>
-  <si>
-    <t>TITULO nº 243262850-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079538</t>
-  </si>
-  <si>
-    <t>TITULO nº 243441051-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079539</t>
-  </si>
-  <si>
-    <t>TITULO nº 141262841 22749 ELEKTRO ELETRICIDADE E S</t>
-  </si>
-  <si>
-    <t>5100079558</t>
-  </si>
-  <si>
-    <t>TITULO nº 243979815-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079625</t>
-  </si>
-  <si>
-    <t>TITULO nº 244572364-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079626</t>
-  </si>
-  <si>
-    <t>TITULO nº 245306548-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079640</t>
-  </si>
-  <si>
-    <t>TITULO nº 245849210-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079641</t>
-  </si>
-  <si>
-    <t>TITULO nº 245880249-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079572</t>
-  </si>
-  <si>
-    <t>TITULO nº 244242053-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079667</t>
-  </si>
-  <si>
-    <t>TITULO nº 245923383-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079668</t>
-  </si>
-  <si>
-    <t>TITULO nº 246112906-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079694</t>
-  </si>
-  <si>
-    <t>TITULO nº 246648068-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079696</t>
-  </si>
-  <si>
-    <t>TITULO nº 246987347-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079594</t>
-  </si>
-  <si>
-    <t>TITULO nº 244470551-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>5100080005</t>
+  </si>
+  <si>
+    <t>5100079910</t>
+  </si>
+  <si>
+    <t>TITULO nº 247920287-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079911</t>
+  </si>
+  <si>
+    <t>TITULO nº 248051253-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079912</t>
+  </si>
+  <si>
+    <t>TITULO nº 248250477-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079913</t>
+  </si>
+  <si>
+    <t>TITULO nº 249066222-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079916</t>
+  </si>
+  <si>
+    <t>5100079940</t>
+  </si>
+  <si>
+    <t>TITULO nº 249344198-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079941</t>
+  </si>
+  <si>
+    <t>TITULO nº 144061636 22749 ELEKTRO ELETRICIDADE E S</t>
+  </si>
+  <si>
+    <t>5100079942</t>
+  </si>
+  <si>
+    <t>TITULO nº 249358210-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079871</t>
+  </si>
+  <si>
+    <t>TITULO nº 243966768-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079876</t>
+  </si>
+  <si>
+    <t>TITULO nº 245657120-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079877</t>
+  </si>
+  <si>
+    <t>TITULO nº 247287638-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079878</t>
+  </si>
+  <si>
+    <t>TITULO nº 247371061-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079879</t>
+  </si>
+  <si>
+    <t>TITULO nº 247744086-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079987</t>
+  </si>
+  <si>
+    <t>TITULO nº 248865460-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079988</t>
+  </si>
+  <si>
+    <t>TITULO nº 249029645-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079990</t>
+  </si>
+  <si>
+    <t>TITULO nº 249645408-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079991</t>
+  </si>
+  <si>
+    <t>TITULO nº 250174428-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079992</t>
+  </si>
+  <si>
+    <t>TITULO nº 250184166-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080020</t>
+  </si>
+  <si>
+    <t>TITULO nº 250735202-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080021</t>
+  </si>
+  <si>
+    <t>TITULO nº 250868577-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080011</t>
+  </si>
+  <si>
+    <t>TITULO nº 250237755-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080092</t>
+  </si>
+  <si>
+    <t>TITULO nº 25188623-C 20517 CIA PAULISTA DE FORÇA E</t>
+  </si>
+  <si>
+    <t>5100080056</t>
+  </si>
+  <si>
+    <t>TITULO nº 251271748-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080057</t>
+  </si>
+  <si>
+    <t>TITULO nº 251250324-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080097</t>
+  </si>
+  <si>
+    <t>5100080098</t>
+  </si>
+  <si>
+    <t>TITULO nº 251886238-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100079905</t>
+  </si>
+  <si>
+    <t>TITULO nº 05/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
   </si>
   <si>
     <t>6160322020</t>
@@ -178,34 +199,34 @@
     <t>616.00.0.3.22.02</t>
   </si>
   <si>
-    <t>5100079535</t>
-  </si>
-  <si>
-    <t>TITULO nº 04/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
-  </si>
-  <si>
-    <t>5100079637</t>
-  </si>
-  <si>
-    <t>TITULO nº 245688516-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079638</t>
-  </si>
-  <si>
-    <t>TITULO nº 245688517-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079639</t>
-  </si>
-  <si>
-    <t>TITULO nº 245714377-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079701</t>
-  </si>
-  <si>
-    <t>TITULO nº 245117441-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>5100079989</t>
+  </si>
+  <si>
+    <t>TITULO nº 249301671-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080009</t>
+  </si>
+  <si>
+    <t>TITULO nº 249943012-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080012</t>
+  </si>
+  <si>
+    <t>TITULO nº 250570921-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080013</t>
+  </si>
+  <si>
+    <t>TITULO nº 250570922-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100080014</t>
+  </si>
+  <si>
+    <t>TITULO nº 250701847-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>Tipo de documento</t>
@@ -361,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -384,37 +405,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" outlineLevel="2">
@@ -422,13 +443,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44694</v>
+        <v>44716</v>
       </c>
       <c r="C2" s="2">
-        <v>44693</v>
+        <v>44715</v>
       </c>
       <c r="D2" s="3">
-        <v>80.95</v>
+        <v>-203.54</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -457,13 +478,13 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>44694</v>
+        <v>44716</v>
       </c>
       <c r="C3" s="2">
-        <v>44693</v>
+        <v>44715</v>
       </c>
       <c r="D3" s="3">
-        <v>9.17</v>
+        <v>-9.40</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
@@ -492,19 +513,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>44694</v>
+        <v>44716</v>
       </c>
       <c r="C4" s="2">
-        <v>44693</v>
+        <v>44715</v>
       </c>
       <c r="D4" s="3">
-        <v>80.95</v>
+        <v>203.54</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -527,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>44694</v>
+        <v>44716</v>
       </c>
       <c r="C5" s="2">
-        <v>44693</v>
+        <v>44715</v>
       </c>
       <c r="D5" s="3">
-        <v>3.46</v>
+        <v>9.40</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -562,19 +583,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>44696</v>
+        <v>44716</v>
       </c>
       <c r="C6" s="2">
-        <v>44695</v>
+        <v>44715</v>
       </c>
       <c r="D6" s="3">
-        <v>93.68</v>
+        <v>80.11</v>
       </c>
       <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -597,19 +618,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44696</v>
+        <v>44718</v>
       </c>
       <c r="C7" s="2">
-        <v>44695</v>
+        <v>44717</v>
       </c>
       <c r="D7" s="3">
-        <v>18.01</v>
+        <v>204.24</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -632,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>44686</v>
+        <v>44719</v>
       </c>
       <c r="C8" s="2">
-        <v>44673</v>
+        <v>44718</v>
       </c>
       <c r="D8" s="3">
-        <v>88.26</v>
+        <v>216.01</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -667,19 +688,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>44686</v>
+        <v>44722</v>
       </c>
       <c r="C9" s="2">
-        <v>44673</v>
+        <v>44721</v>
       </c>
       <c r="D9" s="3">
-        <v>10.17</v>
+        <v>89.35</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -702,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>44686</v>
+        <v>44722</v>
       </c>
       <c r="C10" s="2">
-        <v>44685</v>
+        <v>44721</v>
       </c>
       <c r="D10" s="3">
-        <v>164.87</v>
+        <v>14.28</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -737,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>44686</v>
+        <v>44716</v>
       </c>
       <c r="C11" s="2">
-        <v>44685</v>
+        <v>44715</v>
       </c>
       <c r="D11" s="3">
-        <v>19.76</v>
+        <v>203.54</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -772,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>44686</v>
+        <v>44716</v>
       </c>
       <c r="C12" s="2">
-        <v>44685</v>
+        <v>44715</v>
       </c>
       <c r="D12" s="3">
-        <v>308.78</v>
+        <v>9.40</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -807,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44687</v>
+        <v>44725</v>
       </c>
       <c r="C13" s="2">
-        <v>44686</v>
+        <v>44722</v>
       </c>
       <c r="D13" s="3">
-        <v>176.04</v>
+        <v>361.33</v>
       </c>
       <c r="E13" t="s">
         <v>17</v>
@@ -842,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>44687</v>
+        <v>44725</v>
       </c>
       <c r="C14" s="2">
-        <v>44686</v>
+        <v>44722</v>
       </c>
       <c r="D14" s="3">
-        <v>337.39</v>
+        <v>43.70</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -877,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>44687</v>
+        <v>44721</v>
       </c>
       <c r="C15" s="2">
-        <v>44686</v>
+        <v>44720</v>
       </c>
       <c r="D15" s="3">
-        <v>40.43</v>
+        <v>214.69</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -912,19 +933,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>44690</v>
+        <v>44721</v>
       </c>
       <c r="C16" s="2">
-        <v>44689</v>
+        <v>44720</v>
       </c>
       <c r="D16" s="3">
-        <v>109.49</v>
+        <v>76.35</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -947,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>44690</v>
+        <v>44723</v>
       </c>
       <c r="C17" s="2">
-        <v>44689</v>
+        <v>44722</v>
       </c>
       <c r="D17" s="3">
-        <v>7.93</v>
+        <v>78.54</v>
       </c>
       <c r="E17" t="s">
         <v>21</v>
@@ -982,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>44688</v>
+        <v>44723</v>
       </c>
       <c r="C18" s="2">
-        <v>44687</v>
+        <v>44722</v>
       </c>
       <c r="D18" s="3">
-        <v>269.11</v>
+        <v>12.55</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
@@ -1017,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44688</v>
+        <v>44715</v>
       </c>
       <c r="C19" s="2">
-        <v>44687</v>
+        <v>44692</v>
       </c>
       <c r="D19" s="3">
-        <v>9.40</v>
+        <v>57.03</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -1052,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>44691</v>
+        <v>44715</v>
       </c>
       <c r="C20" s="2">
-        <v>44690</v>
+        <v>44692</v>
       </c>
       <c r="D20" s="3">
-        <v>83.52</v>
+        <v>14.59</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
@@ -1087,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>44691</v>
+        <v>44715</v>
       </c>
       <c r="C21" s="2">
-        <v>44690</v>
+        <v>44701</v>
       </c>
       <c r="D21" s="3">
-        <v>13.22</v>
+        <v>58.50</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -1122,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <v>44691</v>
+        <v>44715</v>
       </c>
       <c r="C22" s="2">
-        <v>44690</v>
+        <v>44701</v>
       </c>
       <c r="D22" s="3">
-        <v>84.00</v>
+        <v>10.15</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
@@ -1157,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="2">
-        <v>44691</v>
+        <v>44714</v>
       </c>
       <c r="C23" s="2">
-        <v>44690</v>
+        <v>44713</v>
       </c>
       <c r="D23" s="3">
-        <v>182.55</v>
+        <v>106.12</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
@@ -1192,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="2">
-        <v>44691</v>
+        <v>44714</v>
       </c>
       <c r="C24" s="2">
-        <v>44690</v>
+        <v>44713</v>
       </c>
       <c r="D24" s="3">
-        <v>73.45</v>
+        <v>442.25</v>
       </c>
       <c r="E24" t="s">
         <v>29</v>
@@ -1227,19 +1248,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="2">
-        <v>44693</v>
+        <v>44714</v>
       </c>
       <c r="C25" s="2">
-        <v>44692</v>
+        <v>44713</v>
       </c>
       <c r="D25" s="3">
-        <v>83.52</v>
+        <v>53.49</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
@@ -1262,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>44693</v>
+        <v>44715</v>
       </c>
       <c r="C26" s="2">
-        <v>44692</v>
+        <v>44714</v>
       </c>
       <c r="D26" s="3">
-        <v>13.22</v>
+        <v>95.03</v>
       </c>
       <c r="E26" t="s">
         <v>31</v>
@@ -1297,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <v>44698</v>
+        <v>44715</v>
       </c>
       <c r="C27" s="2">
-        <v>44697</v>
+        <v>44714</v>
       </c>
       <c r="D27" s="3">
-        <v>206.65</v>
+        <v>7.93</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
@@ -1332,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <v>44700</v>
+        <v>44722</v>
       </c>
       <c r="C28" s="2">
-        <v>44699</v>
+        <v>44721</v>
       </c>
       <c r="D28" s="3">
-        <v>223.56</v>
+        <v>85.60</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
@@ -1367,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="2">
-        <v>44700</v>
+        <v>44722</v>
       </c>
       <c r="C29" s="2">
-        <v>44699</v>
+        <v>44721</v>
       </c>
       <c r="D29" s="3">
-        <v>10.76</v>
+        <v>3.70</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1402,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="2">
-        <v>44702</v>
+        <v>44722</v>
       </c>
       <c r="C30" s="2">
-        <v>44701</v>
+        <v>44721</v>
       </c>
       <c r="D30" s="3">
-        <v>79.29</v>
+        <v>78.54</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -1437,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="2">
-        <v>44703</v>
+        <v>44722</v>
       </c>
       <c r="C31" s="2">
-        <v>44703</v>
+        <v>44721</v>
       </c>
       <c r="D31" s="3">
-        <v>79.29</v>
+        <v>9.17</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -1472,19 +1493,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="2">
-        <v>44694</v>
+        <v>44726</v>
       </c>
       <c r="C32" s="2">
-        <v>44693</v>
+        <v>44725</v>
       </c>
       <c r="D32" s="3">
-        <v>134.44</v>
+        <v>78.54</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
@@ -1507,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="2">
-        <v>44705</v>
+        <v>44726</v>
       </c>
       <c r="C33" s="2">
-        <v>44704</v>
+        <v>44725</v>
       </c>
       <c r="D33" s="3">
-        <v>265.58</v>
+        <v>18.00</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
@@ -1542,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="B34" s="2">
-        <v>44705</v>
+        <v>44728</v>
       </c>
       <c r="C34" s="2">
-        <v>44704</v>
+        <v>44728</v>
       </c>
       <c r="D34" s="3">
-        <v>14.59</v>
+        <v>612.71</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
@@ -1577,19 +1598,19 @@
         <v>0</v>
       </c>
       <c r="B35" s="2">
-        <v>44705</v>
+        <v>44729</v>
       </c>
       <c r="C35" s="2">
-        <v>44704</v>
+        <v>44729</v>
       </c>
       <c r="D35" s="3">
-        <v>159.36</v>
+        <v>164.96</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
@@ -1612,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="B36" s="2">
-        <v>44705</v>
+        <v>44729</v>
       </c>
       <c r="C36" s="2">
-        <v>44704</v>
+        <v>44729</v>
       </c>
       <c r="D36" s="3">
-        <v>6.82</v>
+        <v>10.74</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -1647,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="2">
-        <v>44708</v>
+        <v>44734</v>
       </c>
       <c r="C37" s="2">
-        <v>44706</v>
+        <v>44733</v>
       </c>
       <c r="D37" s="3">
-        <v>658.24</v>
+        <v>1239.16</v>
       </c>
       <c r="E37" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
@@ -1682,19 +1703,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="2">
-        <v>44708</v>
+        <v>44734</v>
       </c>
       <c r="C38" s="2">
-        <v>44706</v>
+        <v>44733</v>
       </c>
       <c r="D38" s="3">
         <v>36.49</v>
       </c>
       <c r="E38" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G38" t="s">
         <v>3</v>
@@ -1717,19 +1738,19 @@
         <v>0</v>
       </c>
       <c r="B39" s="2">
-        <v>44709</v>
+        <v>44735</v>
       </c>
       <c r="C39" s="2">
-        <v>44708</v>
+        <v>44734</v>
       </c>
       <c r="D39" s="3">
-        <v>176.00</v>
+        <v>139.82</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G39" t="s">
         <v>3</v>
@@ -1747,34 +1768,38 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" outlineLevel="1">
-      <c r="A40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="6">
-        <v>4412.40</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K40" s="4" t="s">
+    <row r="40" spans="1:11" outlineLevel="2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44735</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44734</v>
+      </c>
+      <c r="D40" s="3">
+        <v>14.59</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" t="s">
+        <v>5</v>
+      </c>
+      <c r="J40" t="s">
+        <v>6</v>
+      </c>
+      <c r="K40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1783,25 +1808,25 @@
         <v>0</v>
       </c>
       <c r="B41" s="2">
-        <v>44695</v>
+        <v>44733</v>
       </c>
       <c r="C41" s="2">
-        <v>44694</v>
+        <v>44732</v>
       </c>
       <c r="D41" s="3">
-        <v>280.55</v>
+        <v>78.54</v>
       </c>
       <c r="E41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -1818,25 +1843,25 @@
         <v>0</v>
       </c>
       <c r="B42" s="2">
-        <v>44695</v>
+        <v>44741</v>
       </c>
       <c r="C42" s="2">
-        <v>44694</v>
+        <v>44740</v>
       </c>
       <c r="D42" s="3">
-        <v>33.63</v>
+        <v>189.31</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -1853,25 +1878,25 @@
         <v>0</v>
       </c>
       <c r="B43" s="2">
-        <v>44691</v>
+        <v>44736</v>
       </c>
       <c r="C43" s="2">
-        <v>44691</v>
+        <v>44735</v>
       </c>
       <c r="D43" s="3">
-        <v>49417.99</v>
+        <v>140.60</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -1888,25 +1913,25 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <v>44702</v>
+        <v>44736</v>
       </c>
       <c r="C44" s="2">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="D44" s="3">
-        <v>216.68</v>
+        <v>16.69</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -1923,25 +1948,25 @@
         <v>0</v>
       </c>
       <c r="B45" s="2">
-        <v>44702</v>
+        <v>44736</v>
       </c>
       <c r="C45" s="2">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="D45" s="3">
-        <v>10.74</v>
+        <v>85.60</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F45" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -1958,25 +1983,25 @@
         <v>0</v>
       </c>
       <c r="B46" s="2">
-        <v>44702</v>
+        <v>44736</v>
       </c>
       <c r="C46" s="2">
-        <v>44701</v>
+        <v>44735</v>
       </c>
       <c r="D46" s="3">
-        <v>234.03</v>
+        <v>3.70</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -1993,25 +2018,25 @@
         <v>0</v>
       </c>
       <c r="B47" s="2">
-        <v>44702</v>
+        <v>44741</v>
       </c>
       <c r="C47" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="D47" s="3">
-        <v>10.74</v>
+        <v>-189.31</v>
       </c>
       <c r="E47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -2028,25 +2053,25 @@
         <v>0</v>
       </c>
       <c r="B48" s="2">
-        <v>44702</v>
+        <v>44741</v>
       </c>
       <c r="C48" s="2">
-        <v>44701</v>
+        <v>44740</v>
       </c>
       <c r="D48" s="3">
-        <v>57.19</v>
+        <v>189.30</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F48" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -2063,25 +2088,25 @@
         <v>0</v>
       </c>
       <c r="B49" s="2">
-        <v>44702</v>
+        <v>44722</v>
       </c>
       <c r="C49" s="2">
-        <v>44701</v>
+        <v>44722</v>
       </c>
       <c r="D49" s="3">
-        <v>10.74</v>
+        <v>33959.98</v>
       </c>
       <c r="E49" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="s">
         <v>61</v>
-      </c>
-      <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" t="s">
-        <v>54</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
@@ -2098,25 +2123,25 @@
         <v>0</v>
       </c>
       <c r="B50" s="2">
-        <v>44711</v>
+        <v>44723</v>
       </c>
       <c r="C50" s="2">
-        <v>44699</v>
+        <v>44722</v>
       </c>
       <c r="D50" s="3">
-        <v>438.30</v>
+        <v>210.52</v>
       </c>
       <c r="E50" t="s">
+        <v>62</v>
+      </c>
+      <c r="F50" t="s">
         <v>63</v>
       </c>
-      <c r="F50" t="s">
-        <v>64</v>
-      </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -2133,95 +2158,375 @@
         <v>0</v>
       </c>
       <c r="B51" s="2">
-        <v>44711</v>
+        <v>44723</v>
       </c>
       <c r="C51" s="2">
-        <v>44699</v>
+        <v>44722</v>
       </c>
       <c r="D51" s="3">
+        <v>25.46</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+      <c r="F51" t="s">
+        <v>63</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" t="s">
+        <v>5</v>
+      </c>
+      <c r="J51" t="s">
+        <v>6</v>
+      </c>
+      <c r="K51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" outlineLevel="2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44728</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44727</v>
+      </c>
+      <c r="D52" s="3">
+        <v>304.88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>64</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" outlineLevel="2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44728</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44727</v>
+      </c>
+      <c r="D53" s="3">
         <v>9.17</v>
       </c>
-      <c r="E51" t="s">
-        <v>63</v>
-      </c>
-      <c r="F51" t="s">
+      <c r="E53" t="s">
         <v>64</v>
       </c>
-      <c r="G51" t="s">
-        <v>53</v>
-      </c>
-      <c r="H51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" outlineLevel="1">
-      <c r="A52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6">
-        <v>50719.76</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="9">
-        <v>55132.16</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J53" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="7" t="s">
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" t="s">
+        <v>61</v>
+      </c>
+      <c r="I53" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" outlineLevel="2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D54" s="3">
+        <v>124.43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" t="s">
+        <v>61</v>
+      </c>
+      <c r="I54" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" outlineLevel="2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D55" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" t="s">
+        <v>5</v>
+      </c>
+      <c r="J55" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" outlineLevel="2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D56" s="3">
+        <v>203.54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" t="s">
+        <v>60</v>
+      </c>
+      <c r="H56" t="s">
+        <v>61</v>
+      </c>
+      <c r="I56" t="s">
+        <v>5</v>
+      </c>
+      <c r="J56" t="s">
+        <v>6</v>
+      </c>
+      <c r="K56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" outlineLevel="2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D57" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="E57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I57" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" t="s">
+        <v>6</v>
+      </c>
+      <c r="K57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" outlineLevel="2">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D58" s="3">
+        <v>71.74</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>60</v>
+      </c>
+      <c r="H58" t="s">
+        <v>61</v>
+      </c>
+      <c r="I58" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" t="s">
+        <v>6</v>
+      </c>
+      <c r="K58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" outlineLevel="2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44734</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44733</v>
+      </c>
+      <c r="D59" s="3">
+        <v>10.74</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>60</v>
+      </c>
+      <c r="H59" t="s">
+        <v>61</v>
+      </c>
+      <c r="I59" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" t="s">
+        <v>6</v>
+      </c>
+      <c r="K59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" outlineLevel="1">
+      <c r="A60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6">
+        <v>40397.57</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="9">
+        <v>40397.57</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K61" s="7" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Rateios/razao.XLSX
+++ b/Rateios/razao.XLSX
@@ -11,15 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="74">
   <si>
     <t>RE</t>
   </si>
   <si>
-    <t>5100080004</t>
-  </si>
-  <si>
-    <t>TITULO nº 247871586-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>5100081444</t>
+  </si>
+  <si>
+    <t>TITULO nº 262128736-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>6151122020</t>
@@ -34,163 +34,136 @@
     <t/>
   </si>
   <si>
-    <t>5100080005</t>
-  </si>
-  <si>
-    <t>5100079910</t>
-  </si>
-  <si>
-    <t>TITULO nº 247920287-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079911</t>
-  </si>
-  <si>
-    <t>TITULO nº 248051253-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079912</t>
-  </si>
-  <si>
-    <t>TITULO nº 248250477-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079913</t>
-  </si>
-  <si>
-    <t>TITULO nº 249066222-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079916</t>
-  </si>
-  <si>
-    <t>5100079940</t>
-  </si>
-  <si>
-    <t>TITULO nº 249344198-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079941</t>
-  </si>
-  <si>
-    <t>TITULO nº 144061636 22749 ELEKTRO ELETRICIDADE E S</t>
-  </si>
-  <si>
-    <t>5100079942</t>
-  </si>
-  <si>
-    <t>TITULO nº 249358210-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079871</t>
-  </si>
-  <si>
-    <t>TITULO nº 243966768-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079876</t>
-  </si>
-  <si>
-    <t>TITULO nº 245657120-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079877</t>
-  </si>
-  <si>
-    <t>TITULO nº 247287638-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079878</t>
-  </si>
-  <si>
-    <t>TITULO nº 247371061-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079879</t>
-  </si>
-  <si>
-    <t>TITULO nº 247744086-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079987</t>
-  </si>
-  <si>
-    <t>TITULO nº 248865460-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079988</t>
-  </si>
-  <si>
-    <t>TITULO nº 249029645-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079990</t>
-  </si>
-  <si>
-    <t>TITULO nº 249645408-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079991</t>
-  </si>
-  <si>
-    <t>TITULO nº 250174428-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079992</t>
-  </si>
-  <si>
-    <t>TITULO nº 250184166-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080020</t>
-  </si>
-  <si>
-    <t>TITULO nº 250735202-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080021</t>
-  </si>
-  <si>
-    <t>TITULO nº 250868577-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080011</t>
-  </si>
-  <si>
-    <t>TITULO nº 250237755-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080092</t>
-  </si>
-  <si>
-    <t>TITULO nº 25188623-C 20517 CIA PAULISTA DE FORÇA E</t>
-  </si>
-  <si>
-    <t>5100080056</t>
-  </si>
-  <si>
-    <t>TITULO nº 251271748-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080057</t>
-  </si>
-  <si>
-    <t>TITULO nº 251250324-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080097</t>
-  </si>
-  <si>
-    <t>5100080098</t>
-  </si>
-  <si>
-    <t>TITULO nº 251886238-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100079905</t>
-  </si>
-  <si>
-    <t>TITULO nº 05/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
+    <t>5100081445</t>
+  </si>
+  <si>
+    <t>TITULO nº 262421113-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081446</t>
+  </si>
+  <si>
+    <t>TITULO nº 262584876-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081447</t>
+  </si>
+  <si>
+    <t>TITULO nº 262742014-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081448</t>
+  </si>
+  <si>
+    <t>TITULO nº 262748877-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081449</t>
+  </si>
+  <si>
+    <t>TITULO nº 262829410-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081450</t>
+  </si>
+  <si>
+    <t>TITULO nº 263274223-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081451</t>
+  </si>
+  <si>
+    <t>TITULO nº 263289695-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081452</t>
+  </si>
+  <si>
+    <t>TITULO nº 263289696-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081525</t>
+  </si>
+  <si>
+    <t>TITULO nº 263291916-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081526</t>
+  </si>
+  <si>
+    <t>TITULO nº 263581508-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081527</t>
+  </si>
+  <si>
+    <t>TITULO nº 263705567-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081529</t>
+  </si>
+  <si>
+    <t>TITULO nº 264120827-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081530</t>
+  </si>
+  <si>
+    <t>TITULO nº 265155981-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081532</t>
+  </si>
+  <si>
+    <t>TITULO nº 152466860 22749 ELEKTRO ELETRICIDADE E S</t>
+  </si>
+  <si>
+    <t>5100081493</t>
+  </si>
+  <si>
+    <t>TITULO nº 263552146-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081438</t>
+  </si>
+  <si>
+    <t>TITULO nº 040123467-U 23622 ENERGISA SUL-SUDESTE -</t>
+  </si>
+  <si>
+    <t>5100081642</t>
+  </si>
+  <si>
+    <t>TITULO nº 265691194-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081708</t>
+  </si>
+  <si>
+    <t>TITULO nº 265970894-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081709</t>
+  </si>
+  <si>
+    <t>TITULO nº 266537744-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081735</t>
+  </si>
+  <si>
+    <t>TITULO nº 265962400-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081736</t>
+  </si>
+  <si>
+    <t>TITULO nº 266733845-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081528</t>
+  </si>
+  <si>
+    <t>TITULO nº 264051730-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>6160322020</t>
@@ -199,34 +172,34 @@
     <t>616.00.0.3.22.02</t>
   </si>
   <si>
-    <t>5100079989</t>
-  </si>
-  <si>
-    <t>TITULO nº 249301671-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080009</t>
-  </si>
-  <si>
-    <t>TITULO nº 249943012-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080012</t>
-  </si>
-  <si>
-    <t>TITULO nº 250570921-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080013</t>
-  </si>
-  <si>
-    <t>TITULO nº 250570922-C 20517 CIA PAULISTA DE FORÇA</t>
-  </si>
-  <si>
-    <t>5100080014</t>
-  </si>
-  <si>
-    <t>TITULO nº 250701847-C 20517 CIA PAULISTA DE FORÇA</t>
+    <t>5100081494</t>
+  </si>
+  <si>
+    <t>TITULO nº 08/2022 21991 SUCOCITRICO CUTRALE LTDA</t>
+  </si>
+  <si>
+    <t>5100081602</t>
+  </si>
+  <si>
+    <t>TITULO nº 264778560-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081568</t>
+  </si>
+  <si>
+    <t>TITULO nº 265359376-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081569</t>
+  </si>
+  <si>
+    <t>TITULO nº 265413512-C 20517 CIA PAULISTA DE FORÇA</t>
+  </si>
+  <si>
+    <t>5100081570</t>
+  </si>
+  <si>
+    <t>TITULO nº 265413513-C 20517 CIA PAULISTA DE FORÇA</t>
   </si>
   <si>
     <t>Tipo de documento</t>
@@ -382,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,37 +378,37 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:11" outlineLevel="2">
@@ -443,13 +416,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44716</v>
+        <v>44806</v>
       </c>
       <c r="C2" s="2">
-        <v>44715</v>
+        <v>44805</v>
       </c>
       <c r="D2" s="3">
-        <v>-203.54</v>
+        <v>105.05</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -478,19 +451,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>44716</v>
+        <v>44807</v>
       </c>
       <c r="C3" s="2">
-        <v>44715</v>
+        <v>44806</v>
       </c>
       <c r="D3" s="3">
-        <v>-9.40</v>
+        <v>110.80</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
@@ -513,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="2">
-        <v>44716</v>
+        <v>44810</v>
       </c>
       <c r="C4" s="2">
-        <v>44715</v>
+        <v>44809</v>
       </c>
       <c r="D4" s="3">
-        <v>203.54</v>
+        <v>178.23</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
@@ -548,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="B5" s="2">
-        <v>44716</v>
+        <v>44810</v>
       </c>
       <c r="C5" s="2">
-        <v>44715</v>
+        <v>44809</v>
       </c>
       <c r="D5" s="3">
         <v>9.40</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
         <v>3</v>
@@ -583,19 +556,19 @@
         <v>0</v>
       </c>
       <c r="B6" s="2">
-        <v>44716</v>
+        <v>44811</v>
       </c>
       <c r="C6" s="2">
-        <v>44715</v>
+        <v>44809</v>
       </c>
       <c r="D6" s="3">
-        <v>80.11</v>
+        <v>641.39</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>3</v>
@@ -618,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="B7" s="2">
-        <v>44718</v>
+        <v>44810</v>
       </c>
       <c r="C7" s="2">
-        <v>44717</v>
+        <v>44809</v>
       </c>
       <c r="D7" s="3">
-        <v>204.24</v>
+        <v>98.40</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>3</v>
@@ -653,19 +626,19 @@
         <v>0</v>
       </c>
       <c r="B8" s="2">
-        <v>44719</v>
+        <v>44810</v>
       </c>
       <c r="C8" s="2">
-        <v>44718</v>
+        <v>44809</v>
       </c>
       <c r="D8" s="3">
-        <v>216.01</v>
+        <v>8.70</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
         <v>3</v>
@@ -688,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="B9" s="2">
-        <v>44722</v>
+        <v>44811</v>
       </c>
       <c r="C9" s="2">
-        <v>44721</v>
+        <v>44810</v>
       </c>
       <c r="D9" s="3">
-        <v>89.35</v>
+        <v>68.81</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
         <v>3</v>
@@ -723,19 +696,19 @@
         <v>0</v>
       </c>
       <c r="B10" s="2">
-        <v>44722</v>
+        <v>44811</v>
       </c>
       <c r="C10" s="2">
-        <v>44721</v>
+        <v>44810</v>
       </c>
       <c r="D10" s="3">
-        <v>14.28</v>
+        <v>12.24</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>3</v>
@@ -758,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <v>44716</v>
+        <v>44813</v>
       </c>
       <c r="C11" s="2">
-        <v>44715</v>
+        <v>44812</v>
       </c>
       <c r="D11" s="3">
-        <v>203.54</v>
+        <v>68.81</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
         <v>3</v>
@@ -793,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <v>44716</v>
+        <v>44816</v>
       </c>
       <c r="C12" s="2">
-        <v>44715</v>
+        <v>44813</v>
       </c>
       <c r="D12" s="3">
-        <v>9.40</v>
+        <v>255.60</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>3</v>
@@ -828,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="2">
-        <v>44725</v>
+        <v>44816</v>
       </c>
       <c r="C13" s="2">
-        <v>44722</v>
+        <v>44813</v>
       </c>
       <c r="D13" s="3">
-        <v>361.33</v>
+        <v>44.99</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
         <v>3</v>
@@ -863,19 +836,19 @@
         <v>0</v>
       </c>
       <c r="B14" s="2">
-        <v>44725</v>
+        <v>44814</v>
       </c>
       <c r="C14" s="2">
-        <v>44722</v>
+        <v>44813</v>
       </c>
       <c r="D14" s="3">
-        <v>43.70</v>
+        <v>229.17</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
@@ -898,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="B15" s="2">
-        <v>44721</v>
+        <v>44814</v>
       </c>
       <c r="C15" s="2">
-        <v>44720</v>
+        <v>44813</v>
       </c>
       <c r="D15" s="3">
-        <v>214.69</v>
+        <v>40.77</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
         <v>3</v>
@@ -933,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="B16" s="2">
-        <v>44721</v>
+        <v>44814</v>
       </c>
       <c r="C16" s="2">
-        <v>44720</v>
+        <v>44813</v>
       </c>
       <c r="D16" s="3">
-        <v>76.35</v>
+        <v>69.49</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>3</v>
@@ -968,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="B17" s="2">
-        <v>44723</v>
+        <v>44814</v>
       </c>
       <c r="C17" s="2">
-        <v>44722</v>
+        <v>44813</v>
       </c>
       <c r="D17" s="3">
-        <v>78.54</v>
+        <v>18.00</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G17" t="s">
         <v>3</v>
@@ -1003,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="B18" s="2">
-        <v>44723</v>
+        <v>44817</v>
       </c>
       <c r="C18" s="2">
-        <v>44722</v>
+        <v>44816</v>
       </c>
       <c r="D18" s="3">
-        <v>12.55</v>
+        <v>103.20</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
         <v>3</v>
@@ -1038,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="B19" s="2">
-        <v>44715</v>
+        <v>44817</v>
       </c>
       <c r="C19" s="2">
-        <v>44692</v>
+        <v>44816</v>
       </c>
       <c r="D19" s="3">
-        <v>57.03</v>
+        <v>4.96</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
         <v>3</v>
@@ -1073,19 +1046,19 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <v>44715</v>
+        <v>44817</v>
       </c>
       <c r="C20" s="2">
-        <v>44692</v>
+        <v>44816</v>
       </c>
       <c r="D20" s="3">
-        <v>14.59</v>
+        <v>74.32</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
         <v>3</v>
@@ -1108,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="B21" s="2">
-        <v>44715</v>
+        <v>44817</v>
       </c>
       <c r="C21" s="2">
-        <v>44701</v>
+        <v>44816</v>
       </c>
       <c r="D21" s="3">
-        <v>58.50</v>
+        <v>8.95</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G21" t="s">
         <v>3</v>
@@ -1143,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="B22" s="2">
-        <v>44715</v>
+        <v>44819</v>
       </c>
       <c r="C22" s="2">
-        <v>44701</v>
+        <v>44818</v>
       </c>
       <c r="D22" s="3">
-        <v>10.15</v>
+        <v>217.46</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>3</v>
@@ -1178,19 +1151,19 @@
         <v>0</v>
       </c>
       <c r="B23" s="2">
-        <v>44714</v>
+        <v>44824</v>
       </c>
       <c r="C23" s="2">
-        <v>44713</v>
+        <v>44823</v>
       </c>
       <c r="D23" s="3">
-        <v>106.12</v>
+        <v>147.95</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
         <v>3</v>
@@ -1213,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="B24" s="2">
-        <v>44714</v>
+        <v>44824</v>
       </c>
       <c r="C24" s="2">
-        <v>44713</v>
+        <v>44823</v>
       </c>
       <c r="D24" s="3">
-        <v>442.25</v>
+        <v>10.74</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>3</v>
@@ -1248,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="B25" s="2">
-        <v>44714</v>
+        <v>44817</v>
       </c>
       <c r="C25" s="2">
-        <v>44713</v>
+        <v>44813</v>
       </c>
       <c r="D25" s="3">
-        <v>53.49</v>
+        <v>172.45</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
         <v>3</v>
@@ -1283,19 +1256,19 @@
         <v>0</v>
       </c>
       <c r="B26" s="2">
-        <v>44715</v>
+        <v>44817</v>
       </c>
       <c r="C26" s="2">
-        <v>44714</v>
+        <v>44813</v>
       </c>
       <c r="D26" s="3">
-        <v>95.03</v>
+        <v>69.84</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>3</v>
@@ -1318,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="B27" s="2">
-        <v>44715</v>
+        <v>44814</v>
       </c>
       <c r="C27" s="2">
-        <v>44714</v>
+        <v>44813</v>
       </c>
       <c r="D27" s="3">
-        <v>7.93</v>
+        <v>108.03</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>3</v>
@@ -1353,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="B28" s="2">
-        <v>44722</v>
+        <v>44816</v>
       </c>
       <c r="C28" s="2">
-        <v>44721</v>
+        <v>44809</v>
       </c>
       <c r="D28" s="3">
-        <v>85.60</v>
+        <v>380.40</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>3</v>
@@ -1388,19 +1361,19 @@
         <v>0</v>
       </c>
       <c r="B29" s="2">
-        <v>44722</v>
+        <v>44816</v>
       </c>
       <c r="C29" s="2">
-        <v>44721</v>
+        <v>44809</v>
       </c>
       <c r="D29" s="3">
-        <v>3.70</v>
+        <v>34.20</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G29" t="s">
         <v>3</v>
@@ -1423,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="B30" s="2">
-        <v>44722</v>
+        <v>44826</v>
       </c>
       <c r="C30" s="2">
-        <v>44721</v>
+        <v>44825</v>
       </c>
       <c r="D30" s="3">
-        <v>78.54</v>
+        <v>410.14</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>3</v>
@@ -1458,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="B31" s="2">
-        <v>44722</v>
+        <v>44826</v>
       </c>
       <c r="C31" s="2">
-        <v>44721</v>
+        <v>44825</v>
       </c>
       <c r="D31" s="3">
-        <v>9.17</v>
+        <v>16.28</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>3</v>
@@ -1493,19 +1466,19 @@
         <v>0</v>
       </c>
       <c r="B32" s="2">
-        <v>44726</v>
+        <v>44827</v>
       </c>
       <c r="C32" s="2">
-        <v>44725</v>
+        <v>44826</v>
       </c>
       <c r="D32" s="3">
-        <v>78.54</v>
+        <v>68.81</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
         <v>3</v>
@@ -1528,19 +1501,19 @@
         <v>0</v>
       </c>
       <c r="B33" s="2">
-        <v>44726</v>
+        <v>44827</v>
       </c>
       <c r="C33" s="2">
-        <v>44725</v>
+        <v>44826</v>
       </c>
       <c r="D33" s="3">
-        <v>18.00</v>
+        <v>7.94</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
@@ -1563,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="B34" s="2">
-        <v>44728</v>
+        <v>44831</v>
       </c>
       <c r="C34" s="2">
-        <v>44728</v>
+        <v>44830</v>
       </c>
       <c r="D34" s="3">
-        <v>612.71</v>
+        <v>238.79</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G34" t="s">
         <v>3</v>
@@ -1598,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="B35" s="2">
-        <v>44729</v>
+        <v>44831</v>
       </c>
       <c r="C35" s="2">
-        <v>44729</v>
+        <v>44830</v>
       </c>
       <c r="D35" s="3">
-        <v>164.96</v>
+        <v>11.48</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
         <v>3</v>
@@ -1633,19 +1606,19 @@
         <v>0</v>
       </c>
       <c r="B36" s="2">
-        <v>44729</v>
+        <v>44827</v>
       </c>
       <c r="C36" s="2">
-        <v>44729</v>
+        <v>44826</v>
       </c>
       <c r="D36" s="3">
-        <v>10.74</v>
+        <v>1103.84</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
         <v>3</v>
@@ -1668,19 +1641,19 @@
         <v>0</v>
       </c>
       <c r="B37" s="2">
-        <v>44734</v>
+        <v>44833</v>
       </c>
       <c r="C37" s="2">
-        <v>44733</v>
+        <v>44832</v>
       </c>
       <c r="D37" s="3">
-        <v>1239.16</v>
+        <v>370.93</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
         <v>3</v>
@@ -1703,25 +1676,25 @@
         <v>0</v>
       </c>
       <c r="B38" s="2">
-        <v>44734</v>
+        <v>44818</v>
       </c>
       <c r="C38" s="2">
-        <v>44733</v>
+        <v>44817</v>
       </c>
       <c r="D38" s="3">
-        <v>36.49</v>
+        <v>214.69</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -1738,25 +1711,25 @@
         <v>0</v>
       </c>
       <c r="B39" s="2">
-        <v>44735</v>
+        <v>44818</v>
       </c>
       <c r="C39" s="2">
-        <v>44734</v>
+        <v>44817</v>
       </c>
       <c r="D39" s="3">
-        <v>139.82</v>
+        <v>28.91</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -1773,25 +1746,25 @@
         <v>0</v>
       </c>
       <c r="B40" s="2">
-        <v>44735</v>
+        <v>44819</v>
       </c>
       <c r="C40" s="2">
-        <v>44734</v>
+        <v>44819</v>
       </c>
       <c r="D40" s="3">
-        <v>14.59</v>
+        <v>28279.35</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F40" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -1808,25 +1781,25 @@
         <v>0</v>
       </c>
       <c r="B41" s="2">
-        <v>44733</v>
+        <v>44830</v>
       </c>
       <c r="C41" s="2">
-        <v>44732</v>
+        <v>44820</v>
       </c>
       <c r="D41" s="3">
-        <v>78.54</v>
+        <v>296.61</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
@@ -1843,25 +1816,25 @@
         <v>0</v>
       </c>
       <c r="B42" s="2">
-        <v>44741</v>
+        <v>44830</v>
       </c>
       <c r="C42" s="2">
-        <v>44740</v>
+        <v>44820</v>
       </c>
       <c r="D42" s="3">
-        <v>189.31</v>
+        <v>8.95</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -1878,25 +1851,25 @@
         <v>0</v>
       </c>
       <c r="B43" s="2">
-        <v>44736</v>
+        <v>44825</v>
       </c>
       <c r="C43" s="2">
-        <v>44735</v>
+        <v>44824</v>
       </c>
       <c r="D43" s="3">
-        <v>140.60</v>
+        <v>93.07</v>
       </c>
       <c r="E43" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
         <v>51</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>52</v>
-      </c>
-      <c r="G43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>4</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -1913,25 +1886,25 @@
         <v>0</v>
       </c>
       <c r="B44" s="2">
-        <v>44736</v>
+        <v>44825</v>
       </c>
       <c r="C44" s="2">
-        <v>44735</v>
+        <v>44824</v>
       </c>
       <c r="D44" s="3">
-        <v>16.69</v>
+        <v>10.74</v>
       </c>
       <c r="E44" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" t="s">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
         <v>51</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>52</v>
-      </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>4</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -1948,25 +1921,25 @@
         <v>0</v>
       </c>
       <c r="B45" s="2">
-        <v>44736</v>
+        <v>44825</v>
       </c>
       <c r="C45" s="2">
-        <v>44735</v>
+        <v>44824</v>
       </c>
       <c r="D45" s="3">
-        <v>85.60</v>
+        <v>87.09</v>
       </c>
       <c r="E45" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G45" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I45" t="s">
         <v>5</v>
@@ -1983,25 +1956,25 @@
         <v>0</v>
       </c>
       <c r="B46" s="2">
-        <v>44736</v>
+        <v>44825</v>
       </c>
       <c r="C46" s="2">
-        <v>44735</v>
+        <v>44824</v>
       </c>
       <c r="D46" s="3">
-        <v>3.70</v>
+        <v>10.74</v>
       </c>
       <c r="E46" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -2018,25 +1991,25 @@
         <v>0</v>
       </c>
       <c r="B47" s="2">
-        <v>44741</v>
+        <v>44825</v>
       </c>
       <c r="C47" s="2">
-        <v>44740</v>
+        <v>44824</v>
       </c>
       <c r="D47" s="3">
-        <v>-189.31</v>
+        <v>222.98</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G47" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -2053,25 +2026,25 @@
         <v>0</v>
       </c>
       <c r="B48" s="2">
-        <v>44741</v>
+        <v>44825</v>
       </c>
       <c r="C48" s="2">
-        <v>44740</v>
+        <v>44824</v>
       </c>
       <c r="D48" s="3">
-        <v>189.30</v>
+        <v>10.74</v>
       </c>
       <c r="E48" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -2083,450 +2056,65 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" outlineLevel="2">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2">
-        <v>44722</v>
-      </c>
-      <c r="C49" s="2">
-        <v>44722</v>
-      </c>
-      <c r="D49" s="3">
-        <v>33959.98</v>
-      </c>
-      <c r="E49" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>60</v>
-      </c>
-      <c r="H49" t="s">
-        <v>61</v>
-      </c>
-      <c r="I49" t="s">
-        <v>5</v>
-      </c>
-      <c r="J49" t="s">
-        <v>6</v>
-      </c>
-      <c r="K49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" outlineLevel="2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="2">
-        <v>44723</v>
-      </c>
-      <c r="C50" s="2">
-        <v>44722</v>
-      </c>
-      <c r="D50" s="3">
-        <v>210.52</v>
-      </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" t="s">
-        <v>61</v>
-      </c>
-      <c r="I50" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" outlineLevel="2">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="2">
-        <v>44723</v>
-      </c>
-      <c r="C51" s="2">
-        <v>44722</v>
-      </c>
-      <c r="D51" s="3">
-        <v>25.46</v>
-      </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" t="s">
-        <v>60</v>
-      </c>
-      <c r="H51" t="s">
-        <v>61</v>
-      </c>
-      <c r="I51" t="s">
-        <v>5</v>
-      </c>
-      <c r="J51" t="s">
-        <v>6</v>
-      </c>
-      <c r="K51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" outlineLevel="2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="2">
-        <v>44728</v>
-      </c>
-      <c r="C52" s="2">
-        <v>44727</v>
-      </c>
-      <c r="D52" s="3">
-        <v>304.88</v>
-      </c>
-      <c r="E52" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s">
-        <v>60</v>
-      </c>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" outlineLevel="2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <v>44728</v>
-      </c>
-      <c r="C53" s="2">
-        <v>44727</v>
-      </c>
-      <c r="D53" s="3">
-        <v>9.17</v>
-      </c>
-      <c r="E53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s">
-        <v>60</v>
-      </c>
-      <c r="H53" t="s">
-        <v>61</v>
-      </c>
-      <c r="I53" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" outlineLevel="2">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C54" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D54" s="3">
-        <v>124.43</v>
-      </c>
-      <c r="E54" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" t="s">
-        <v>60</v>
-      </c>
-      <c r="H54" t="s">
-        <v>61</v>
-      </c>
-      <c r="I54" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" t="s">
-        <v>6</v>
-      </c>
-      <c r="K54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" outlineLevel="2">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C55" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D55" s="3">
-        <v>10.74</v>
-      </c>
-      <c r="E55" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" t="s">
-        <v>60</v>
-      </c>
-      <c r="H55" t="s">
-        <v>61</v>
-      </c>
-      <c r="I55" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" outlineLevel="2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C56" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D56" s="3">
-        <v>203.54</v>
-      </c>
-      <c r="E56" t="s">
-        <v>68</v>
-      </c>
-      <c r="F56" t="s">
-        <v>69</v>
-      </c>
-      <c r="G56" t="s">
-        <v>60</v>
-      </c>
-      <c r="H56" t="s">
-        <v>61</v>
-      </c>
-      <c r="I56" t="s">
-        <v>5</v>
-      </c>
-      <c r="J56" t="s">
-        <v>6</v>
-      </c>
-      <c r="K56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" outlineLevel="2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C57" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D57" s="3">
-        <v>10.74</v>
-      </c>
-      <c r="E57" t="s">
-        <v>68</v>
-      </c>
-      <c r="F57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" t="s">
-        <v>60</v>
-      </c>
-      <c r="H57" t="s">
-        <v>61</v>
-      </c>
-      <c r="I57" t="s">
-        <v>5</v>
-      </c>
-      <c r="J57" t="s">
-        <v>6</v>
-      </c>
-      <c r="K57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" outlineLevel="2">
-      <c r="A58" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C58" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D58" s="3">
-        <v>71.74</v>
-      </c>
-      <c r="E58" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" t="s">
-        <v>71</v>
-      </c>
-      <c r="G58" t="s">
-        <v>60</v>
-      </c>
-      <c r="H58" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" t="s">
-        <v>5</v>
-      </c>
-      <c r="J58" t="s">
-        <v>6</v>
-      </c>
-      <c r="K58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" outlineLevel="2">
-      <c r="A59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="2">
-        <v>44734</v>
-      </c>
-      <c r="C59" s="2">
-        <v>44733</v>
-      </c>
-      <c r="D59" s="3">
-        <v>10.74</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" t="s">
-        <v>60</v>
-      </c>
-      <c r="H59" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" t="s">
-        <v>6</v>
-      </c>
-      <c r="K59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" outlineLevel="1">
-      <c r="A60" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="6">
-        <v>40397.57</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="9">
-        <v>40397.57</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J61" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K61" s="7" t="s">
+    <row r="49" spans="1:11" outlineLevel="1">
+      <c r="A49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6">
+        <v>34784.43</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="9">
+        <v>34784.43</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>6</v>
       </c>
     </row>
